--- a/export_data.xlsx
+++ b/export_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6 +430,876 @@
         <is>
           <t>test</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>48</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>56</v>
+      </c>
+      <c r="I8" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+      <c r="I9" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>63</v>
+      </c>
+      <c r="H10" t="n">
+        <v>72</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70</v>
+      </c>
+      <c r="H11" t="n">
+        <v>80</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>66</v>
+      </c>
+      <c r="G12" t="n">
+        <v>77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>88</v>
+      </c>
+      <c r="I12" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>36</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48</v>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72</v>
+      </c>
+      <c r="G13" t="n">
+        <v>84</v>
+      </c>
+      <c r="H13" t="n">
+        <v>96</v>
+      </c>
+      <c r="I13" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>78</v>
+      </c>
+      <c r="G14" t="n">
+        <v>91</v>
+      </c>
+      <c r="H14" t="n">
+        <v>104</v>
+      </c>
+      <c r="I14" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
+        <v>42</v>
+      </c>
+      <c r="D15" t="n">
+        <v>56</v>
+      </c>
+      <c r="E15" t="n">
+        <v>70</v>
+      </c>
+      <c r="F15" t="n">
+        <v>84</v>
+      </c>
+      <c r="G15" t="n">
+        <v>98</v>
+      </c>
+      <c r="H15" t="n">
+        <v>112</v>
+      </c>
+      <c r="I15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90</v>
+      </c>
+      <c r="G16" t="n">
+        <v>105</v>
+      </c>
+      <c r="H16" t="n">
+        <v>120</v>
+      </c>
+      <c r="I16" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96</v>
+      </c>
+      <c r="G17" t="n">
+        <v>112</v>
+      </c>
+      <c r="H17" t="n">
+        <v>128</v>
+      </c>
+      <c r="I17" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>51</v>
+      </c>
+      <c r="D18" t="n">
+        <v>68</v>
+      </c>
+      <c r="E18" t="n">
+        <v>85</v>
+      </c>
+      <c r="F18" t="n">
+        <v>102</v>
+      </c>
+      <c r="G18" t="n">
+        <v>119</v>
+      </c>
+      <c r="H18" t="n">
+        <v>136</v>
+      </c>
+      <c r="I18" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>54</v>
+      </c>
+      <c r="D19" t="n">
+        <v>72</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90</v>
+      </c>
+      <c r="F19" t="n">
+        <v>108</v>
+      </c>
+      <c r="G19" t="n">
+        <v>126</v>
+      </c>
+      <c r="H19" t="n">
+        <v>144</v>
+      </c>
+      <c r="I19" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76</v>
+      </c>
+      <c r="E20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F20" t="n">
+        <v>114</v>
+      </c>
+      <c r="G20" t="n">
+        <v>133</v>
+      </c>
+      <c r="H20" t="n">
+        <v>152</v>
+      </c>
+      <c r="I20" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" t="n">
+        <v>60</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>120</v>
+      </c>
+      <c r="G21" t="n">
+        <v>140</v>
+      </c>
+      <c r="H21" t="n">
+        <v>160</v>
+      </c>
+      <c r="I21" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>63</v>
+      </c>
+      <c r="D22" t="n">
+        <v>84</v>
+      </c>
+      <c r="E22" t="n">
+        <v>105</v>
+      </c>
+      <c r="F22" t="n">
+        <v>126</v>
+      </c>
+      <c r="G22" t="n">
+        <v>147</v>
+      </c>
+      <c r="H22" t="n">
+        <v>168</v>
+      </c>
+      <c r="I22" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>110</v>
+      </c>
+      <c r="F23" t="n">
+        <v>132</v>
+      </c>
+      <c r="G23" t="n">
+        <v>154</v>
+      </c>
+      <c r="H23" t="n">
+        <v>176</v>
+      </c>
+      <c r="I23" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>46</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>92</v>
+      </c>
+      <c r="E24" t="n">
+        <v>115</v>
+      </c>
+      <c r="F24" t="n">
+        <v>138</v>
+      </c>
+      <c r="G24" t="n">
+        <v>161</v>
+      </c>
+      <c r="H24" t="n">
+        <v>184</v>
+      </c>
+      <c r="I24" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48</v>
+      </c>
+      <c r="C25" t="n">
+        <v>72</v>
+      </c>
+      <c r="D25" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>120</v>
+      </c>
+      <c r="F25" t="n">
+        <v>144</v>
+      </c>
+      <c r="G25" t="n">
+        <v>168</v>
+      </c>
+      <c r="H25" t="n">
+        <v>192</v>
+      </c>
+      <c r="I25" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>150</v>
+      </c>
+      <c r="G26" t="n">
+        <v>175</v>
+      </c>
+      <c r="H26" t="n">
+        <v>200</v>
+      </c>
+      <c r="I26" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>52</v>
+      </c>
+      <c r="C27" t="n">
+        <v>78</v>
+      </c>
+      <c r="D27" t="n">
+        <v>104</v>
+      </c>
+      <c r="E27" t="n">
+        <v>130</v>
+      </c>
+      <c r="F27" t="n">
+        <v>156</v>
+      </c>
+      <c r="G27" t="n">
+        <v>182</v>
+      </c>
+      <c r="H27" t="n">
+        <v>208</v>
+      </c>
+      <c r="I27" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>54</v>
+      </c>
+      <c r="C28" t="n">
+        <v>81</v>
+      </c>
+      <c r="D28" t="n">
+        <v>108</v>
+      </c>
+      <c r="E28" t="n">
+        <v>135</v>
+      </c>
+      <c r="F28" t="n">
+        <v>162</v>
+      </c>
+      <c r="G28" t="n">
+        <v>189</v>
+      </c>
+      <c r="H28" t="n">
+        <v>216</v>
+      </c>
+      <c r="I28" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>84</v>
+      </c>
+      <c r="D29" t="n">
+        <v>112</v>
+      </c>
+      <c r="E29" t="n">
+        <v>140</v>
+      </c>
+      <c r="F29" t="n">
+        <v>168</v>
+      </c>
+      <c r="G29" t="n">
+        <v>196</v>
+      </c>
+      <c r="H29" t="n">
+        <v>224</v>
+      </c>
+      <c r="I29" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>58</v>
+      </c>
+      <c r="C30" t="n">
+        <v>87</v>
+      </c>
+      <c r="D30" t="n">
+        <v>116</v>
+      </c>
+      <c r="E30" t="n">
+        <v>145</v>
+      </c>
+      <c r="F30" t="n">
+        <v>174</v>
+      </c>
+      <c r="G30" t="n">
+        <v>203</v>
+      </c>
+      <c r="H30" t="n">
+        <v>232</v>
+      </c>
+      <c r="I30" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" t="n">
+        <v>90</v>
+      </c>
+      <c r="D31" t="n">
+        <v>120</v>
+      </c>
+      <c r="E31" t="n">
+        <v>150</v>
+      </c>
+      <c r="F31" t="n">
+        <v>180</v>
+      </c>
+      <c r="G31" t="n">
+        <v>210</v>
+      </c>
+      <c r="H31" t="n">
+        <v>240</v>
+      </c>
+      <c r="I31" t="n">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/export_data.xlsx
+++ b/export_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Домашняя тренировка с гантелями </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01/17/24 08:00:15</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Хфит Ноги Спина</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>02/01/24 16:00:39</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export_data.xlsx
+++ b/export_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,27 @@
         <v>128</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лыжи</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01/30/24 16:30:45</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
